--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99897A0-894C-4CA2-ACF1-1811475B2CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F97E57-BF24-4B52-B02D-FDAAB1B45D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,10 +380,10 @@
     <t>Birth Date</t>
   </si>
   <si>
-    <t>[0]</t>
-  </si>
-  <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>[111]</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:CG2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R2" s="28">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W2" s="21">
         <v>39067</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38966B-B503-40DF-8AC1-39D9FA2931FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4263CF74-C461-4D36-AEF5-4DB2E3526B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Initial Medical Form</t>
   </si>
@@ -156,13 +156,16 @@
   </si>
   <si>
     <t>[111]</t>
+  </si>
+  <si>
+    <t>Dose 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +224,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +385,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
@@ -395,6 +412,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -737,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,21 +778,22 @@
     <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.140625" customWidth="1"/>
-    <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="29.7109375" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" customWidth="1"/>
+    <col min="26" max="26" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="29.7109375" customWidth="1"/>
+    <col min="32" max="32" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -823,56 +842,59 @@
       <c r="P1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -921,52 +943,55 @@
       <c r="P2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="R2" s="13">
-        <v>0</v>
       </c>
       <c r="S2" s="13">
         <v>0</v>
       </c>
-      <c r="T2" s="13" t="s">
-        <v>40</v>
+      <c r="T2" s="13">
+        <v>0</v>
       </c>
       <c r="U2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="11">
         <v>39067</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Z2" s="6">
         <v>123</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AB2" s="12">
         <v>502</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AD2" s="12">
         <v>123</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AE2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AF2" s="8">
         <v>44519</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -981,7 +1006,7 @@
           <x14:formula1>
             <xm:f>Options!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:P2</xm:sqref>
+          <xm:sqref>A2:Q2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4263CF74-C461-4D36-AEF5-4DB2E3526B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992C39C3-7583-4B77-BC21-579EA67EB3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18915" yWindow="4950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Initial Medical Form</t>
   </si>
@@ -158,7 +158,10 @@
     <t>[111]</t>
   </si>
   <si>
-    <t>Dose 2</t>
+    <t>Dose 2 SARS-COV-2</t>
+  </si>
+  <si>
+    <t>Dose 2 SARS-COV-2 &lt; 12</t>
   </si>
 </sst>
 </file>
@@ -755,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,22 +781,23 @@
     <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.140625" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" customWidth="1"/>
-    <col min="26" max="26" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="29.7109375" customWidth="1"/>
-    <col min="32" max="32" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.140625" customWidth="1"/>
+    <col min="27" max="27" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="29.7109375" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,56 +849,59 @@
       <c r="Q1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -946,52 +953,55 @@
       <c r="Q2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="S2" s="13">
-        <v>0</v>
       </c>
       <c r="T2" s="13">
         <v>0</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>40</v>
+      <c r="U2" s="13">
+        <v>0</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="11">
         <v>39067</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AA2" s="6">
         <v>123</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AC2" s="12">
         <v>502</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="12">
+      <c r="AE2" s="12">
         <v>123</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AF2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AG2" s="8">
         <v>44519</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1006,7 +1016,7 @@
           <x14:formula1>
             <xm:f>Options!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:Q2</xm:sqref>
+          <xm:sqref>A2:R2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992C39C3-7583-4B77-BC21-579EA67EB3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5F5998-C8CA-4069-88B3-49677C23DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18915" yWindow="4950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Initial Medical Form</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Dose 2 SARS-COV-2 &lt; 12</t>
+  </si>
+  <si>
+    <t>clinicname</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -380,6 +383,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -388,7 +402,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
@@ -416,6 +430,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -758,46 +775,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.140625" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.109375" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.109375" customWidth="1"/>
     <col min="27" max="27" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="29.7109375" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="29.6640625" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -900,8 +917,11 @@
       <c r="AH1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="AI1" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1004,6 +1024,7 @@
       <c r="AH2" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="AI2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1032,9 +1053,9 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5F5998-C8CA-4069-88B3-49677C23DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70193509-A0EE-4EA4-963B-9FBE7E8D54E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Initial Medical Form</t>
   </si>
@@ -137,9 +137,6 @@
     <t>County</t>
   </si>
   <si>
-    <t>San Benito</t>
-  </si>
-  <si>
     <t>CAMERON</t>
   </si>
   <si>
@@ -165,6 +162,18 @@
   </si>
   <si>
     <t>clinicname</t>
+  </si>
+  <si>
+    <t>phoenix</t>
+  </si>
+  <si>
+    <t>1201 s 7th ave</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -777,44 +786,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" customWidth="1"/>
-    <col min="8" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.109375" customWidth="1"/>
-    <col min="25" max="25" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.109375" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.140625" customWidth="1"/>
     <col min="27" max="27" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="29.6640625" customWidth="1"/>
-    <col min="33" max="33" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="29.7109375" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -864,10 +873,10 @@
         <v>26</v>
       </c>
       <c r="Q1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>3</v>
@@ -879,16 +888,16 @@
         <v>27</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="4" t="s">
         <v>28</v>
@@ -918,10 +927,10 @@
         <v>9</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -944,7 +953,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>13</v>
@@ -962,13 +971,13 @@
         <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>10</v>
@@ -977,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T2" s="13">
         <v>0</v>
@@ -986,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="11">
         <v>39067</v>
@@ -1006,17 +1015,17 @@
       <c r="AB2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="12">
-        <v>502</v>
+      <c r="AC2" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="AD2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>85007</v>
+      </c>
+      <c r="AF2" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="AE2" s="12">
-        <v>123</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="AG2" s="8">
         <v>44519</v>
@@ -1053,9 +1062,9 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70193509-A0EE-4EA4-963B-9FBE7E8D54E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE87D3B-8734-4013-8206-E79D05C53C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>test3</t>
+    <t>test10</t>
   </si>
 </sst>
 </file>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,25 +953,25 @@
         <v>13</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>13</v>
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>40</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE87D3B-8734-4013-8206-E79D05C53C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C23547B-971F-4CCD-A78D-D5F7B3459EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9648" yWindow="2484" windowWidth="29820" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Initial Medical Form</t>
   </si>
@@ -173,7 +173,10 @@
     <t>test</t>
   </si>
   <si>
-    <t>test10</t>
+    <t>SIISID</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -784,46 +787,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.140625" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.140625" customWidth="1"/>
-    <col min="27" max="27" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="29.7109375" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.33203125" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.109375" customWidth="1"/>
+    <col min="26" max="26" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.109375" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="29.6640625" customWidth="1"/>
+    <col min="34" max="34" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -888,49 +891,52 @@
         <v>27</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -994,46 +1000,49 @@
       <c r="U2" s="13">
         <v>0</v>
       </c>
-      <c r="V2" s="13" t="s">
-        <v>47</v>
+      <c r="V2" s="13">
+        <v>12575223</v>
       </c>
       <c r="W2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Z2" s="11">
         <v>39067</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AB2" s="6">
         <v>123</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AE2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AF2" s="12">
         <v>85007</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AG2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AH2" s="8">
         <v>44519</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1062,9 +1071,9 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C23547B-971F-4CCD-A78D-D5F7B3459EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6FC19F-E49E-4F0E-B845-87755B732631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9648" yWindow="2484" windowWidth="29820" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +246,14 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,7 +422,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
@@ -445,11 +453,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Cálculo" xfId="2" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="3" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -467,7 +476,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -787,13 +796,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -977,13 +986,13 @@
         <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>10</v>
@@ -1043,6 +1052,10 @@
         <v>24</v>
       </c>
       <c r="AJ2" s="6"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="I8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,7 +1084,7 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6FC19F-E49E-4F0E-B845-87755B732631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E602A8-0399-4595-A539-2EBC5C6E3E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
@@ -454,6 +454,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cálculo" xfId="2" builtinId="22"/>
@@ -796,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,13 +987,13 @@
         <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>10</v>
@@ -1056,6 +1057,9 @@
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="I8" s="16"/>
       <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="Q9" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E602A8-0399-4595-A539-2EBC5C6E3E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C47FF92-2E1B-4E5D-8EFA-F8CF200E9594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,9 +457,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Cálculo" xfId="2" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="3" builtinId="23"/>
-    <cellStyle name="Entrada" xfId="4" builtinId="20"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -799,11 +799,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -960,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>13</v>
@@ -996,7 +996,7 @@
         <v>13</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>13</v>
@@ -1047,7 +1047,7 @@
         <v>35</v>
       </c>
       <c r="AH2" s="8">
-        <v>44519</v>
+        <v>44686</v>
       </c>
       <c r="AI2" s="6" t="s">
         <v>24</v>
@@ -1088,7 +1088,7 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C47FF92-2E1B-4E5D-8EFA-F8CF200E9594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2A2FE9-5F71-4B8D-B3F1-A896B2E350B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="R17" sqref="R16:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="AJ2" s="6"/>
     </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="I7" s="16"/>
+      <c r="O7" s="16"/>
+    </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="I8" s="16"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="Q9" s="17"/>
+      <c r="Q8" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2A2FE9-5F71-4B8D-B3F1-A896B2E350B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414B94B4-7343-4048-AF61-B6A8BFF91D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Initial Medical Form</t>
   </si>
@@ -152,9 +152,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>[111]</t>
-  </si>
-  <si>
     <t>Dose 2 SARS-COV-2</t>
   </si>
   <si>
@@ -170,13 +167,13 @@
     <t>1201 s 7th ave</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>SIISID</t>
   </si>
   <si>
-    <t>test3</t>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>[10191]</t>
   </si>
 </sst>
 </file>
@@ -799,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R17" sqref="R16:S17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,10 +883,10 @@
         <v>26</v>
       </c>
       <c r="Q1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>3</v>
@@ -901,7 +898,7 @@
         <v>27</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>36</v>
@@ -943,12 +940,12 @@
         <v>9</v>
       </c>
       <c r="AJ1" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
@@ -957,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>10</v>
@@ -1002,19 +999,19 @@
         <v>13</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="T2" s="13">
-        <v>0</v>
+        <v>240295000</v>
       </c>
       <c r="U2" s="13">
-        <v>0</v>
+        <v>261694017</v>
       </c>
       <c r="V2" s="13">
         <v>12575223</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X2" s="13" t="s">
         <v>46</v>
@@ -1035,10 +1032,10 @@
         <v>23</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF2" s="12">
         <v>85007</v>
